--- a/medicine/Pharmacie/Plexxikon/Plexxikon.xlsx
+++ b/medicine/Pharmacie/Plexxikon/Plexxikon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plexxikon est une entreprise américaine spécialisée dans la recherche médicale et basée à Berkeley (Californie). Elle est fondée en 2001 par Joseph Schlessinger de l'université Yale et Sung-Hou Kim de l'université de Californie à Berkeley.
-En avril 2011, Plexxikon est achetée par l'entreprise pharmaceutique japonaise Daiichi Sankyo pour 805 millions USD et 130 millions de dollars supplémentaires payés par échelonnement[1],[2].
+En avril 2011, Plexxikon est achetée par l'entreprise pharmaceutique japonaise Daiichi Sankyo pour 805 millions USD et 130 millions de dollars supplémentaires payés par échelonnement,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Plexxikon » (voir la liste des auteurs).</t>
         </is>
